--- a/Flow_Chart.xlsx
+++ b/Flow_Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Relay to 110</t>
   </si>
@@ -90,13 +90,58 @@
   </si>
   <si>
     <t>Restart device</t>
+  </si>
+  <si>
+    <t>Lost Power</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Write electrical record every 30 seconds</t>
+  </si>
+  <si>
+    <t>Write final electrical record</t>
+  </si>
+  <si>
+    <t>Logging in</t>
+  </si>
+  <si>
+    <t>Verifying login</t>
+  </si>
+  <si>
+    <t>Blinking blue</t>
+  </si>
+  <si>
+    <t>Get user record</t>
+  </si>
+  <si>
+    <t>Write once to poke web service</t>
+  </si>
+  <si>
+    <t>Write status record every 1 minute</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Change to waiting</t>
+  </si>
+  <si>
+    <t>At end go to</t>
+  </si>
+  <si>
+    <t>10 seconds, change to waiting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,13 +149,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -125,10 +184,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,102 +483,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>19</v>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>